--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2032872.981560298</v>
+        <v>2137052.61601137</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9748626.225173112</v>
+        <v>9748626.225173114</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>180.4206502410178</v>
       </c>
       <c r="D2" t="n">
-        <v>26.30878201733038</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>127.577353281445</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>85.68976676064594</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>343.2897449237605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>52.98455791795151</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>181.6059626579625</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>27.31105153749118</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>329.1502695874355</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>91.35655199876884</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.70945560857419</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>176.8034298023355</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>97.54185816719648</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1658,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.268486125805158</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605720642</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>61.39258527121162</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>134.5665975534085</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>115.4764219077142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>206.20207519321</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>65.25773758187778</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>211.147499124903</v>
       </c>
       <c r="V37" t="n">
-        <v>61.97958965902517</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>139.5271979141365</v>
+        <v>262.6919119500168</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>225.1727202799172</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311159021</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187872</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1715.892666966214</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1346.930150025803</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267228</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2492.631839006148</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2102.492507030336</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.1173538559948</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C4" t="n">
-        <v>490.1811709280879</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1750.908770885772</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1750.908770885772</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1461.805904011416</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1207.121415805529</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>1207.121415805529</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9099329995249</v>
+        <v>979.1318649075118</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.1173538559948</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.30093260579</v>
+        <v>2012.898941548399</v>
       </c>
       <c r="C5" t="n">
-        <v>828.5436145009811</v>
+        <v>1643.936424607987</v>
       </c>
       <c r="D5" t="n">
-        <v>470.2779158942306</v>
+        <v>1285.670726001237</v>
       </c>
       <c r="E5" t="n">
-        <v>84.48966329598635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1743.854181767319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1454.751314892962</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1200.066826687075</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>910.6496566501144</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>682.660105752097</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.8675266085669</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2139.863183736034</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C8" t="n">
-        <v>1770.900666795622</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D8" t="n">
-        <v>1412.634968188872</v>
+        <v>1160.585586273443</v>
       </c>
       <c r="E8" t="n">
-        <v>1026.846715590628</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>615.8608108010201</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>200.7883606460165</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736034</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2139.863183736034</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4877,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228005</v>
@@ -4896,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995249</v>
+        <v>1204.917869975587</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995249</v>
+        <v>976.9283190775692</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.1173538559948</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400758</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121689</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121689</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121689</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270488</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648824</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138456</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703155</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>197.0043242297717</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>197.0043242297717</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6011,10 +6013,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307826</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
         <v>1964.511902868375</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>696.7084350851617</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572548</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>377.655612744919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>229.7425191625259</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>229.7425191625259</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>229.7425191625259</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855599</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199797</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.55619999391</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956949</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058932</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>878.3568999154014</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6549,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>935.9992711742725</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="32">
@@ -6692,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>1022.872235754086</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>853.936052826179</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>703.8194134138432</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>555.9063198314501</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>409.0163723335397</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>241.8202730484197</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.98731883176</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625873</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1653.302830625873</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1425.313279727856</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1204.520700584326</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>2980.381044744765</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.9324428257312</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V37" t="n">
-        <v>1625.780207734479</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>1336.363037697518</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1108.373486799501</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>887.5809076559709</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1547.449290305074</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407056</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7423,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>2886.739351141026</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>2717.80316821312</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>2567.686528800784</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853364</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580264</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832666</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.06254548757</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510511</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854709</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648822</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611862</v>
+        <v>3517.169946012814</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138443</v>
+        <v>3289.180395114796</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>3068.387815971266</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,34 +7666,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
   </sheetData>
@@ -9644,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.3469868924072</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405032</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>63.36835372228705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.728115292815374</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>65.54986409393035</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>19.5075801958271</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>75.03697526434611</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>75.03697526434112</v>
       </c>
       <c r="V37" t="n">
-        <v>190.1580536648028</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>146.9958004224545</v>
+        <v>23.83108638657416</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>61.35027805667383</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825025</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
@@ -26344,7 +26346,7 @@
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752542</v>
@@ -26353,7 +26355,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26436,22 +26438,22 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683037</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683037</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933607.3020555618</v>
+        <v>-933607.3020555621</v>
       </c>
       <c r="C6" t="n">
-        <v>395137.4436720305</v>
+        <v>395137.4436720306</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720306</v>
+        <v>395137.4436720308</v>
       </c>
       <c r="E6" t="n">
-        <v>145649.428997161</v>
+        <v>145649.4289971616</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045168</v>
+        <v>471061.8908045167</v>
       </c>
       <c r="G6" t="n">
+        <v>471061.890804517</v>
+      </c>
+      <c r="H6" t="n">
         <v>471061.8908045169</v>
       </c>
-      <c r="H6" t="n">
-        <v>471061.8908045167</v>
-      </c>
       <c r="I6" t="n">
-        <v>471061.8908045167</v>
+        <v>471061.8908045169</v>
       </c>
       <c r="J6" t="n">
-        <v>253530.6884072393</v>
+        <v>253530.6884072394</v>
       </c>
       <c r="K6" t="n">
         <v>471061.8908045168</v>
@@ -26552,7 +26554,7 @@
         <v>471061.8908045168</v>
       </c>
       <c r="M6" t="n">
-        <v>386006.8628690048</v>
+        <v>386006.8628690051</v>
       </c>
       <c r="N6" t="n">
         <v>471061.8908045167</v>
@@ -26561,7 +26563,7 @@
         <v>471061.8908045169</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.8908045168</v>
+        <v>471061.8908045169</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022923</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973562</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>184.8522415299897</v>
       </c>
       <c r="D2" t="n">
-        <v>328.3742596033526</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>21.03811973676731</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.079258570796</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>21.98314684724704</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>328.9458121543103</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>37.94298661820673</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>191.2736018146036</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52.78010048482628</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>203.2512123885516</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.1225245733631</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>109.7195685342555</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29089,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-7.865308404575443e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29466,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-5.109416889581552e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29949,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-3.782135957299425e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134838</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>638.0665277849409</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010493</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>266.8689447991536</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899023</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998932</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>506.7248157016076</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060485</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2137052.61601137</v>
+        <v>2133040.005997378</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9748626.225173114</v>
+        <v>9748626.225173112</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>180.4206502410178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4702381038692</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>85.68976676064594</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>169.6447800754164</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>228.0656025585478</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>52.98455791795151</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039586</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.31105153749118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>329.1502695874355</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>105.6307852904543</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>200.6939993756705</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>176.8034298023355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.268486125805158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>39.52129633183122</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685265918</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>40.53421095546916</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5665975534085</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>206.20207519321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>65.25773758187778</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>211.147499124903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.6919119500168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>225.1727202799172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>64.91921363453586</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.127214892214</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D2" t="n">
-        <v>767.8615162854633</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E2" t="n">
-        <v>382.0732636872191</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>797.4834000772721</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>628.5472171493652</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1750.908770885772</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1750.908770885772</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1461.805904011416</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1207.121415805529</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.121415805529</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X4" t="n">
-        <v>979.1318649075118</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>979.1318649075118</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2012.898941548399</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1643.936424607987</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.670726001237</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1887.813801820605</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1518.851284880193</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1160.585586273443</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3108.617390216615</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2798542473295</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W10" t="n">
-        <v>1204.917869975587</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X10" t="n">
-        <v>976.9283190775692</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.9283190775692</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5126,22 +5126,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>215.8238677453423</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,22 +5767,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8470138298251</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>216.8470138298251</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6138,13 +6138,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851617</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572548</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>377.655612744919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7425191625259</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7425191625259</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7425191625259</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6396,40 +6396,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199797</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.55619999391</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956949</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058932</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154014</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>935.9992711742725</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.2066920307424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,7 +6709,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.872235754086</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>853.936052826179</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>703.8194134138432</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>555.9063198314501</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>409.0163723335397</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>241.8202730484197</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6879,31 +6879,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.98731883176</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625873</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1653.302830625873</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.313279727856</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.520700584326</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2383.002557118213</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2980.381044744765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7262,16 +7262,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908939</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1168.356000042741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>940.366449144724</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>719.5738700011939</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7502,13 +7502,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2886.739351141026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2717.80316821312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>2567.686528800784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3517.169946012814</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3289.180395114796</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3068.387815971266</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326898</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>408.6744289523863</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>241.4783296672662</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>100.7734165143927</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>191.8807364711688</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>99.76050189075474</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.728115292815374</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5075801958271</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>75.03697526434611</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>75.03697526434112</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>23.83108638657416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>61.35027805667383</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825024</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839524.1439825025</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26435,19 +26435,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683037</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683037</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933607.3020555621</v>
+        <v>-933607.3020555624</v>
       </c>
       <c r="C6" t="n">
-        <v>395137.4436720306</v>
+        <v>395137.4436720309</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720308</v>
+        <v>395137.4436720302</v>
       </c>
       <c r="E6" t="n">
-        <v>145649.4289971616</v>
+        <v>145302.0497428047</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045167</v>
+        <v>470714.5115501598</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.5115501604</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501599</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501599</v>
       </c>
       <c r="J6" t="n">
-        <v>253530.6884072394</v>
+        <v>253183.3091528824</v>
       </c>
       <c r="K6" t="n">
-        <v>471061.8908045168</v>
+        <v>470714.5115501601</v>
       </c>
       <c r="L6" t="n">
-        <v>471061.8908045168</v>
+        <v>470714.5115501599</v>
       </c>
       <c r="M6" t="n">
-        <v>386006.8628690051</v>
+        <v>385659.4836146478</v>
       </c>
       <c r="N6" t="n">
-        <v>471061.8908045167</v>
+        <v>470714.5115501602</v>
       </c>
       <c r="O6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501602</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501601</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>184.8522415299897</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.4601319683926</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>104.079258570796</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>116.8782182611746</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>154.6682391049328</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.9458121543103</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034321</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.2736018146036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.78010048482628</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>145.3643866684477</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>85.51783882994241</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>109.7195685342555</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.648353952253364e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-7.865308404575443e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-5.109416889581552e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-3.782135957299425e-12</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>454.5879800486398</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32952,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>638.0665277849409</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>572.7987818204766</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899004</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>311.9917356041954</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899023</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998932</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>506.7248157016076</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133040.005997378</v>
+        <v>2134800.536300163</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.4702381038692</v>
+        <v>111.4702381038671</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>169.6447800754164</v>
+        <v>169.6447800754148</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.0656025585478</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7307299422338</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991602</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222606</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>105.6307852904543</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.6939993756705</v>
+        <v>28.33530928504394</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>60.25690685265918</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881268</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.012869240227</v>
+        <v>1703.012869240225</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.747170633477</v>
+        <v>1344.747170633475</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4479,52 +4479,52 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
         <v>1501.251696170064</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>285.796379051221</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.580917301916</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,7 +4816,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3108.617390216615</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2777.554502873044</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.78584760293</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.32008934185</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.180757366038</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4883,16 +4883,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1724.573336597917</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>1469.88884839203</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>1180.471678355069</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4821274570515</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5275,31 +5275,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.06254548756</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510501</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854699</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,55 +5734,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6730,7 +6730,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>191.8807364711688</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8202214113364</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825024</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="16">
@@ -26328,28 +26328,28 @@
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752545</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818188</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818185</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26435,10 +26435,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26447,7 +26447,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933607.3020555624</v>
+        <v>-933607.3020555616</v>
       </c>
       <c r="C6" t="n">
-        <v>395137.4436720309</v>
+        <v>395137.4436720304</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720302</v>
+        <v>395137.4436720301</v>
       </c>
       <c r="E6" t="n">
-        <v>145302.0497428047</v>
+        <v>145614.6910717257</v>
       </c>
       <c r="F6" t="n">
-        <v>470714.5115501598</v>
+        <v>471027.1528790809</v>
       </c>
       <c r="G6" t="n">
-        <v>470714.5115501604</v>
+        <v>471027.1528790816</v>
       </c>
       <c r="H6" t="n">
-        <v>470714.5115501599</v>
+        <v>471027.1528790813</v>
       </c>
       <c r="I6" t="n">
-        <v>470714.5115501599</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="J6" t="n">
-        <v>253183.3091528824</v>
+        <v>253495.9504818039</v>
       </c>
       <c r="K6" t="n">
-        <v>470714.5115501601</v>
+        <v>471027.1528790811</v>
       </c>
       <c r="L6" t="n">
-        <v>470714.5115501599</v>
+        <v>471027.1528790817</v>
       </c>
       <c r="M6" t="n">
-        <v>385659.4836146478</v>
+        <v>385972.1249435692</v>
       </c>
       <c r="N6" t="n">
-        <v>470714.5115501602</v>
+        <v>471027.1528790813</v>
       </c>
       <c r="O6" t="n">
-        <v>470714.5115501602</v>
+        <v>471027.1528790813</v>
       </c>
       <c r="P6" t="n">
-        <v>470714.5115501601</v>
+        <v>471027.1528790813</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.4601319683926</v>
+        <v>270.4601319683946</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>116.8782182611746</v>
+        <v>116.8782182611762</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.6682391049328</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.54216182877377</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911221</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034321</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>145.3643866684477</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>85.51783882994241</v>
+        <v>257.8765289205689</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-5.648353952253364e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899004</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
